--- a/NewBlankTask142/Project_Notebook.xlsx
+++ b/NewBlankTask142/Project_Notebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GitHub\Studio\Studio\UiPath.Studio.Plugin.Workflow\ProjectTemplates\Business Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dragos.suma\Documents\UiPath\.repositories\trolololo\NewBlankTask142\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841250D0-30A1-4773-B3A3-B7E3E0F9044F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DBB580-D7D1-43CA-AE7C-040AED0E0458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="18700" windowHeight="9580" activeTab="5" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
+    <workbookView xWindow="19470" yWindow="6225" windowWidth="19185" windowHeight="15555" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Scratchpad" sheetId="6" r:id="rId1"/>
@@ -357,22 +357,22 @@
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###,000"/>
-    <numFmt numFmtId="165" formatCode="yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="176" formatCode="###,000"/>
+    <numFmt numFmtId="177" formatCode="yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="dd\-mmm"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -380,7 +380,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -393,7 +393,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -406,21 +406,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0B744D"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="72"/>
       <color theme="0"/>
-      <name val="Calibri Light"/>
+      <name val="游ゴシック Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="17"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -428,7 +428,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -436,7 +436,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -455,7 +455,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -468,7 +468,7 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -476,8 +476,15 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -787,7 +794,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
@@ -803,7 +810,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -817,7 +824,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1489,15 +1496,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95188A8B-20B9-44C0-8B2D-2363D0E3925F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.75" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1509,16 +1520,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="41.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="4" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="24">
       <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
@@ -1528,7 +1539,7 @@
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="51" customHeight="1">
       <c r="A2" s="53" t="s">
         <v>87</v>
       </c>
@@ -1538,19 +1549,19 @@
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2">
         <f ca="1">TODAY()</f>
-        <v>44097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="25" customFormat="1">
       <c r="A6" s="25" t="s">
         <v>84</v>
       </c>
@@ -1558,7 +1569,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="25" customFormat="1">
       <c r="A7" s="25" t="s">
         <v>58</v>
       </c>
@@ -1566,88 +1577,88 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="25" customFormat="1">
       <c r="A8" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="43" t="str">
         <f ca="1">TEXT(Date_Input+Days, preferred_date_format)</f>
-        <v>2020-09-30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2021-08-19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="25" customFormat="1">
       <c r="A9" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="43" t="str">
         <f ca="1">TEXT(WORKDAY(Date_Input, Days),preferred_date_format)</f>
-        <v>2020-10-02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2021-08-23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="44" t="str">
         <f ca="1">TEXT(Date_Input,"YYYYMMDD")</f>
-        <v>20200923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20210812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="25" customFormat="1"/>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="43" t="str">
         <f ca="1">TEXT(TODAY(), preferred_date_format)</f>
-        <v>2020-09-23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2021-08-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="43" t="str">
         <f ca="1">TEXT(TODAY()-WEEKDAY(TODAY(),2)-6, preferred_date_format)</f>
-        <v>2020-09-14</v>
+        <v>2021-08-02</v>
       </c>
       <c r="C13" s="43" t="str">
         <f ca="1">TEXT(LastWeekMonday+4, preferred_date_format)</f>
-        <v>2020-09-18</v>
+        <v>2021-08-06</v>
       </c>
       <c r="D13" s="45" t="str">
         <f ca="1">TEXT(LastWeekFriday+2, preferred_date_format)</f>
-        <v>2020-09-20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2021-08-08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="43" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())-1, 1), preferred_date_format)</f>
-        <v>2020-08-01</v>
+        <v>2021-07-01</v>
       </c>
       <c r="C14" s="43" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), 0), preferred_date_format)</f>
-        <v>2020-08-31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2021-07-31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="43" t="str">
         <f ca="1">TEXT(WORKDAY(DATE(YEAR(TODAY()),MONTH(TODAY()),1)-1,1), preferred_date_format)</f>
-        <v>2020-09-01</v>
+        <v>2021-08-02</v>
       </c>
       <c r="C15" s="43" t="str">
         <f ca="1">TEXT(WORKDAY(DATE(YEAR(TODAY()),MONTH(TODAY())+1,1),-1), preferred_date_format)</f>
-        <v>2020-09-30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2021-08-31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" thickBot="1"/>
+    <row r="17" spans="1:6" ht="19.5" thickBot="1">
       <c r="A17" s="49" t="s">
         <v>18</v>
       </c>
@@ -1655,7 +1666,7 @@
       <c r="C17" s="50"/>
       <c r="D17" s="51"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1674,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
         <v>20</v>
       </c>
@@ -1673,7 +1684,7 @@
       <c r="C19" s="47"/>
       <c r="D19" s="48"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
@@ -1687,7 +1698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
@@ -1697,7 +1708,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="14" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1716,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
@@ -1722,7 +1733,7 @@
         <v>12月31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
@@ -1733,7 +1744,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="13" t="s">
         <v>30</v>
       </c>
@@ -1744,7 +1755,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="13" t="s">
         <v>31</v>
       </c>
@@ -1759,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="13" t="s">
         <v>32</v>
       </c>
@@ -1770,7 +1781,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="13" t="s">
         <v>33</v>
       </c>
@@ -1781,7 +1792,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
         <v>22</v>
       </c>
@@ -1789,7 +1800,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" s="25" customFormat="1">
       <c r="A30" s="46" t="s">
         <v>86</v>
       </c>
@@ -1800,7 +1811,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="26"/>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="19.5" thickBot="1">
       <c r="A31" s="15" t="s">
         <v>25</v>
       </c>
@@ -1818,6 +1829,7 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1831,16 +1843,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="25" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="25" customFormat="1" ht="24">
       <c r="A1" s="52" t="s">
         <v>53</v>
       </c>
@@ -1850,7 +1862,7 @@
       <c r="E1" s="52"/>
       <c r="F1" s="52"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="53" t="s">
         <v>76</v>
       </c>
@@ -1860,7 +1872,7 @@
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1880,7 +1892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1902,7 +1914,7 @@
         <v>C.</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1922,7 +1934,7 @@
         <v>C. Doe</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1942,7 +1954,7 @@
         <v>John C.</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1962,7 +1974,7 @@
         <v>Doe</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="C9" t="s">
         <v>64</v>
       </c>
@@ -1971,7 +1983,7 @@
         <v>John C. Doe</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1982,7 +1994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1993,7 +2005,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2017,12 +2029,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="C14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2034,7 +2046,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -2056,6 +2068,7 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2069,15 +2082,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="24">
       <c r="A1" s="52" t="s">
         <v>2</v>
       </c>
@@ -2085,7 +2098,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="53" t="s">
         <v>77</v>
       </c>
@@ -2093,13 +2106,13 @@
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
     </row>
-    <row r="3" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="25" customFormat="1">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2107,7 +2120,7 @@
         <v>3.1415929999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="25" customFormat="1">
       <c r="A5" s="25" t="s">
         <v>68</v>
       </c>
@@ -2116,7 +2129,7 @@
         <v>3.1415929999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2125,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2134,20 +2147,20 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="19.5" thickBot="1"/>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1">
       <c r="A9" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="51"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
@@ -2164,7 +2177,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
@@ -2172,13 +2185,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="19.5" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>36</v>
       </c>
@@ -2193,6 +2206,7 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
   </mergeCells>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2206,14 +2220,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="4" width="15.1796875" customWidth="1"/>
+    <col min="3" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="24">
       <c r="A1" s="52" t="s">
         <v>78</v>
       </c>
@@ -2221,7 +2235,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="53" t="s">
         <v>79</v>
       </c>
@@ -2229,25 +2243,25 @@
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
     </row>
-    <row r="3" spans="1:4" s="42" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="42" customFormat="1" ht="19.5" thickBot="1">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="51"/>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="19.5" thickBot="1">
       <c r="A5" s="27" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="26"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="21" t="s">
         <v>40</v>
       </c>
@@ -2255,13 +2269,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="23" t="s">
         <v>40</v>
       </c>
@@ -2270,7 +2284,7 @@
         <v>Untitled Document.docx</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
         <v>42</v>
       </c>
@@ -2279,7 +2293,7 @@
         <v>docx</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="20" t="s">
         <v>41</v>
       </c>
@@ -2288,7 +2302,7 @@
         <v>Untitled Document</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="19.5" thickBot="1">
       <c r="A11" s="24" t="s">
         <v>56</v>
       </c>
@@ -2297,7 +2311,7 @@
         <v>C:\temp\</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="16" t="s">
         <v>57</v>
       </c>
@@ -2312,6 +2326,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2320,123 +2335,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88115396-113A-4E92-ABEE-648E1977C738}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="165.54296875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="30"/>
+    <col min="1" max="1" width="165.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="30" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="5.25" customHeight="1">
       <c r="A1" s="36"/>
     </row>
-    <row r="2" spans="1:5" ht="35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="37.5">
       <c r="A2" s="39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="48">
       <c r="A3" s="38" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="35"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="35"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="35"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="35"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="35"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="35"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="35"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="35"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="35"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="35"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" s="35"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" s="35"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" s="35"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" s="35"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1">
       <c r="A21" s="35"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1">
       <c r="A22" s="35"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" s="34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" s="37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" s="37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" s="37" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
